--- a/result/NCDC_weather_data/stations_imputed/58725099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/58725099999.xlsx
@@ -569,7 +569,9 @@
       <c r="M2" t="n">
         <v>1.491876</v>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>8.121448249291785</v>
+      </c>
       <c r="O2" t="n">
         <v>132.08</v>
       </c>
@@ -625,7 +627,9 @@
       <c r="M3" t="n">
         <v>1.183212</v>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>8.121448249291785</v>
+      </c>
       <c r="O3" t="n">
         <v>145.4</v>
       </c>
@@ -681,7 +685,9 @@
       <c r="M4" t="n">
         <v>1.594764</v>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>8.121448249291785</v>
+      </c>
       <c r="O4" t="n">
         <v>152.78</v>
       </c>
@@ -737,7 +743,9 @@
       <c r="M5" t="n">
         <v>1.2861</v>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>8.121448249291785</v>
+      </c>
       <c r="O5" t="n">
         <v>154.76</v>
       </c>
@@ -793,7 +801,9 @@
       <c r="M6" t="n">
         <v>2.31498</v>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>8.121448249291785</v>
+      </c>
       <c r="O6" t="n">
         <v>154.76</v>
       </c>
